--- a/Results/compiled_knowledge_data_mode2.xlsx
+++ b/Results/compiled_knowledge_data_mode2.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,17 +445,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>AWGC</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,23 +474,23 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>1082370.565601666</v>
+        <v>1024761.922676971</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>V10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -507,17 +507,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>F_lpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>AWGC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -534,17 +534,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F_hn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -561,17 +561,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -588,17 +588,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>AWGC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>V9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>T_cyc</t>
+          <t>F_ln</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -615,17 +615,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,17 +642,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_lco</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,17 +669,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>V11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>C_o2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -696,17 +696,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>F_sg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T_cyc</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -723,17 +723,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F_hn</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -750,17 +750,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>C_o2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_slurry</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -804,17 +804,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -824,24 +824,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>V9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -858,17 +858,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>F_lco</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -878,51 +878,51 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_slurry</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -939,17 +939,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_lco</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -966,49 +966,49 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_sg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1020,22 +1020,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1047,17 +1047,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>T_cyc</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1074,12 +1074,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1101,44 +1101,44 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>F_reflux</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F_hn</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>T_10</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>F7</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>T_20</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>T_10</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>L_sp</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>F_lpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>F_sg</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1148,56 +1148,56 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>L_sp</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>F_lco</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>F7</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>C_co</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>T_cyc</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>F_ln</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>V4</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>F_lpg</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>AWGC</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>C_co</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1209,44 +1209,44 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>T_cyc-T_reg</t>
+          <t>C_o2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>T_cyc</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>C_co</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1256,24 +1256,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>C_o2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1290,17 +1290,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>T_cyc</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1317,17 +1317,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>F_sg</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1344,66 +1344,66 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>T_cyc</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>T_cyc-T_reg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>T_cyc-T_reg</t>
+          <t>V2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>C_co</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>F_sc</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>T_cyc-T_reg</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>P1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1418,14 +1418,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>T_cyc</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1435,24 +1435,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>T_cyc-T_reg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>V11</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>C_o2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1510,7 +1510,7 @@
     <row r="42">
       <c r="D42" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1522,7 +1522,7 @@
     <row r="43">
       <c r="D43" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1534,19 +1534,19 @@
     <row r="44">
       <c r="D44" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>C_co</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="D45" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1558,7 +1558,7 @@
     <row r="46">
       <c r="D46" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1570,7 +1570,7 @@
     <row r="47">
       <c r="D47" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1582,12 +1582,12 @@
     <row r="48">
       <c r="D48" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>C_o2</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -1611,31 +1611,31 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="D51" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="D52" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -1683,31 +1683,31 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="D57" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="D58" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -1767,151 +1767,151 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="D64" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="D65" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="D66" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="D67" t="inlineStr">
         <is>
+          <t>ACAB</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>F_rgc</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="D68" t="inlineStr">
         <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>F_rgc</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="D69" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="D70" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="D71" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="D72" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="D74" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="D75" t="inlineStr">
         <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>ACAB</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>F_slurry</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>P2</t>
         </is>
       </c>
     </row>
@@ -1935,67 +1935,67 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="D78" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="D79" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="D80" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="D81" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>T_fra</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="D82" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -2007,55 +2007,55 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="D84" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="D85" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="D86" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="D87" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -2067,19 +2067,19 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="D89" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -2091,31 +2091,31 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="D91" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="D92" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
@@ -2127,31 +2127,31 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="D94" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="D95" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -2163,19 +2163,19 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="D97" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
@@ -2187,38 +2187,38 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="D99" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="D100" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="D101" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="102">
       <c r="D102" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -2242,22 +2242,34 @@
     <row r="103">
       <c r="D103" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>T_fra</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="D104" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
+        <is>
+          <t>T_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>V8</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>T_20</t>
         </is>
@@ -2274,7 +2286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2285,17 +2297,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>AWGC</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -2314,23 +2326,23 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>1082355.482970949</v>
+        <v>1024746.840046253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>V10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2347,17 +2359,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>F_lpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>AWGC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2374,17 +2386,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F_hn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2401,17 +2413,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2428,17 +2440,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>AWGC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>V9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>T_cyc</t>
+          <t>F_ln</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2455,17 +2467,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2482,17 +2494,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_lco</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2509,17 +2521,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>V11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>C_o2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2536,17 +2548,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>F_sg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T_cyc</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2563,17 +2575,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F_hn</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2590,17 +2602,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>C_o2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_slurry</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2617,7 +2629,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2627,34 +2639,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>T_r</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>T_r</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2671,17 +2683,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>V9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2691,51 +2703,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>F_lco</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2752,17 +2764,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_slurry</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2779,49 +2791,49 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>F_lco</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>F_rgc</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>T_reg</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>F_slurry</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F_sc</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>L_sp</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>V7</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>L_sp</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2833,22 +2845,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2860,17 +2872,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>F_sg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2887,17 +2899,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2914,39 +2926,39 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>T_cyc</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>L_sp</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2961,19 +2973,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>F_lpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_hn</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2983,34 +2995,34 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>T_cyc</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>F_sg</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>C_co</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3022,44 +3034,44 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>F_ln</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>C_o2</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>F7</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>T_cyc-T_reg</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>T_cyc</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3069,24 +3081,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>C_o2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_lpg</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3103,17 +3115,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3130,17 +3142,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>C_co</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3157,71 +3169,71 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>F_sg</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>T_cyc-T_reg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>T_cyc-T_reg</t>
+          <t>V2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>T_reg</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>V7</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>T_cyc</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>F_sc</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>T_cyc-T_reg</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>P1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>C_co</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3231,24 +3243,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3258,46 +3270,46 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>T_cyc</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>T_cyc-T_reg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>V11</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3307,7 +3319,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>C_o2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3324,7 +3336,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3341,7 +3353,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3358,7 +3370,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3370,7 +3382,7 @@
     <row r="42">
       <c r="D42" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3382,19 +3394,19 @@
     <row r="43">
       <c r="D43" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>C_co</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="D44" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3406,7 +3418,7 @@
     <row r="45">
       <c r="D45" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3418,7 +3430,7 @@
     <row r="46">
       <c r="D46" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3430,12 +3442,12 @@
     <row r="47">
       <c r="D47" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>C_o2</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3459,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -3459,31 +3471,31 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="D50" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="D51" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3507,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3519,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3531,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -3531,31 +3543,31 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="D56" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="D57" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3579,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -3579,7 +3591,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3603,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3615,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -3615,151 +3627,151 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="D63" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="D64" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="D65" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="D66" t="inlineStr">
         <is>
+          <t>ACAB</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>F_rgc</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="D67" t="inlineStr">
         <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>F_rgc</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="D68" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="D69" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="D70" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="D71" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="D72" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="D74" t="inlineStr">
         <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>ACAB</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>F_slurry</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3783,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>P2</t>
         </is>
       </c>
     </row>
@@ -3783,67 +3795,67 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="D77" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="D78" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="D79" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="D80" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>T_fra</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="D81" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -3855,55 +3867,55 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="D83" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="D84" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="D85" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="D86" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -3915,19 +3927,19 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="D88" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -3939,31 +3951,31 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="D90" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="D91" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
@@ -3975,31 +3987,31 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="D93" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="D94" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -4011,19 +4023,19 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="D96" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
@@ -4035,38 +4047,38 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="D98" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="D99" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="D100" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4078,7 +4090,7 @@
     <row r="101">
       <c r="D101" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4090,22 +4102,34 @@
     <row r="102">
       <c r="D102" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>T_fra</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="D103" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
+        <is>
+          <t>T_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>V8</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>T_20</t>
         </is>
@@ -4122,7 +4146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4133,17 +4157,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>AWGC</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -4162,23 +4186,23 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>1078484.602709538</v>
+        <v>1025344.141010953</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>V10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4195,17 +4219,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>F_lpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>AWGC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4222,17 +4246,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F_hn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4249,17 +4273,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4269,24 +4293,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>AWGC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>T_cyc</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4296,24 +4320,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>V9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>F_ln</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4323,24 +4347,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4350,14 +4374,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>V11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4384,125 +4408,125 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>F_sg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>C_o2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>T3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>T_reg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>T_reg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>T_cyc</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>V1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>F5</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>V1</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>C_o2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_hn</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T_r</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F_slurry</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>T_20</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>T_r</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>T_reg</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>C_co</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4512,51 +4536,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>C_o2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>V9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>T_r</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>C_o2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>F_rgc</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4566,24 +4590,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>F_lco</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4600,7 +4624,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_slurry</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4615,34 +4639,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_rgc</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_lco</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4654,17 +4678,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4674,29 +4698,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4708,49 +4732,49 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>F_sg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F_rgc</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>T_cyc</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4762,71 +4786,71 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>L_sp</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>F_rgc</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>F_sg</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>F_lpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_hn</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4843,17 +4867,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4870,17 +4894,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>F_ln</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4897,17 +4921,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>F_lpg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4924,17 +4948,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4951,17 +4975,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>C_co</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4971,24 +4995,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4998,24 +5022,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>F_sg</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>T_cyc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5025,24 +5049,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>T_cyc</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5052,24 +5076,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>C_co</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5086,12 +5110,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5113,7 +5137,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>T_cyc</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5130,7 +5154,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5270,7 +5294,7 @@
     <row r="48">
       <c r="D48" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5299,7 +5323,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5335,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
@@ -5323,19 +5347,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="D53" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
@@ -5347,7 +5371,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5383,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5395,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -5407,19 +5431,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>T_fra</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="D60" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5479,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5491,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5503,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
@@ -5491,14 +5515,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="D67" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5510,12 +5534,12 @@
     <row r="68">
       <c r="D68" t="inlineStr">
         <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>F_rgc</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -5570,24 +5594,24 @@
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="D74" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5623,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>P2</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5635,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -5623,7 +5647,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5659,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
@@ -5647,38 +5671,38 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>T_fra</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="D80" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="D81" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="D82" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5690,24 +5714,24 @@
     <row r="83">
       <c r="D83" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="D84" t="inlineStr">
         <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>F7</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5743,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5755,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
@@ -5743,38 +5767,38 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="D88" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="D89" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="D90" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5786,19 +5810,19 @@
     <row r="91">
       <c r="D91" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="D92" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5810,7 +5834,7 @@
     <row r="93">
       <c r="D93" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5822,19 +5846,19 @@
     <row r="94">
       <c r="D94" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="D95" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5846,31 +5870,31 @@
     <row r="96">
       <c r="D96" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="D97" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="D98" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5882,60 +5906,60 @@
     <row r="99">
       <c r="D99" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="D100" t="inlineStr">
         <is>
+          <t>T_10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t>F_slurry</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>F_reflux</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="D101" t="inlineStr">
         <is>
+          <t>V8</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
           <t>F_slurry</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>T_fra</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="D102" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="D103" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>T_fra</t>
         </is>
       </c>
     </row>
@@ -5947,65 +5971,17 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="D105" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
-        <is>
-          <t>T_10</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>V11</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>T_10</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>V8</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>T_20</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>V10</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>T_20</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>V11</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
         <is>
           <t>T_20</t>
         </is>
